--- a/biology/Médecine/Colonne_de_Bertin/Colonne_de_Bertin.xlsx
+++ b/biology/Médecine/Colonne_de_Bertin/Colonne_de_Bertin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La colonne de Bertin, ou colonne rénale dans la nomenclature anatomique (termes modernes et anciens), est une extension médullaire du cortex rénal entre les pyramides rénales. Elle permet au cortex rénal d'être mieux ancré. La médullaire rénale est constituée de multiples pyramides séparées les unes des autres par les extensions du cortex. Chaque colonne se compose de lignes de vaisseaux sanguins et urinaires et des tubes d'un matériau fibreux. 
 Les colonnes rénales sont composées de vaisseaux sanguins et de tubules urinaires situés le long d'un tissu cortical fibreux.
